--- a/병원수_통계.xlsx
+++ b/병원수_통계.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/443ae5d4b5680dee/바탕 화면/수업/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1547EC08-6FA9-4F43-AD55-C7A7E020D888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3FDF80-3269-47C1-A5DB-48FFA9EF2204}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA97FCD-59A1-4882-8307-1E4350BFE8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{197F4D3E-1EBC-4D8C-8DFC-19FBDE4FF02A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>병원</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>충정북도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -517,6 +521,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>

--- a/병원수_통계.xlsx
+++ b/병원수_통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA97FCD-59A1-4882-8307-1E4350BFE8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569599E7-A94F-42BB-A949-3D099A8B419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{197F4D3E-1EBC-4D8C-8DFC-19FBDE4FF02A}"/>
+    <workbookView xWindow="2916" yWindow="300" windowWidth="17280" windowHeight="11940" xr2:uid="{197F4D3E-1EBC-4D8C-8DFC-19FBDE4FF02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -132,15 +132,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충정남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충정북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -522,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>37</v>
